--- a/sh/フローチャート.xlsx
+++ b/sh/フローチャート.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Oki/Desktop/沖　真弥/実験/chipAtlas/スクリプト/chipatlas_git/sh/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="49940" windowHeight="28020" tabRatio="500"/>
+    <workbookView xWindow="2180" yWindow="460" windowWidth="36640" windowHeight="25940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="268">
   <si>
     <t>sh upDate.sh</t>
     <phoneticPr fontId="2"/>
@@ -86,10 +86,6 @@
   </si>
   <si>
     <t>|==&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sh ccheckCoreDump.sh</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -996,6 +992,22 @@
   </si>
   <si>
     <t>084</t>
+  </si>
+  <si>
+    <t>sh geneNameToUniqueTSS.sh</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>140:chipatlas/lib/TSS/uniqueTSS.hg19.bed</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sh checkCoreDump.sh</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>qsub reRunSraTailor.sh</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1071,167 +1083,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1445,7 +1297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1480,7 +1332,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1668,10 +1520,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K159"/>
+  <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1713,7 +1565,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2"/>
       <c r="J2" s="2"/>
@@ -1723,7 +1575,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1739,7 +1591,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
@@ -1761,7 +1613,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="2"/>
       <c r="J6" s="2"/>
@@ -1774,7 +1626,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2"/>
       <c r="J7" s="2"/>
@@ -1787,7 +1639,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="2"/>
       <c r="J8" s="2"/>
@@ -1800,7 +1652,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="2"/>
       <c r="J9" s="2"/>
@@ -1813,7 +1665,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" s="2"/>
       <c r="J10" s="2"/>
@@ -1826,7 +1678,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="2"/>
       <c r="J11" s="2"/>
@@ -1839,49 +1691,57 @@
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F16" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H16" s="2"/>
       <c r="J16" s="2"/>
@@ -1891,7 +1751,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="H17" s="2"/>
       <c r="J17" s="2"/>
@@ -1901,7 +1761,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="H18" s="2"/>
       <c r="J18" s="2"/>
@@ -1911,294 +1771,293 @@
         <v>5</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H19" s="2"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
+      <c r="F20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="B32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="E41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H39" s="2"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D40" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H40" s="2"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D41" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="2" t="s">
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F43" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H45" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>64</v>
+        <v>5</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H47" s="2" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>66</v>
+        <v>12</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -2206,66 +2065,60 @@
         <v>5</v>
       </c>
       <c r="I49" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D53" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F51" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E54" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="F54" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -2273,174 +2126,168 @@
         <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>78</v>
+      <c r="F56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="H57" s="2" t="s">
-        <v>5</v>
+        <v>253</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="H58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E62" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="F62" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>87</v>
+      <c r="F63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="H64" s="2" t="s">
-        <v>5</v>
+        <v>253</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="H65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>94</v>
+        <v>12</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
@@ -2448,16 +2295,10 @@
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
@@ -2465,16 +2306,16 @@
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
@@ -2482,16 +2323,16 @@
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
@@ -2499,82 +2340,76 @@
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="2"/>
+      <c r="D73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="D75" s="2"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>12</v>
+        <v>108</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
@@ -2584,14 +2419,20 @@
       <c r="D77" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E77" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="F77" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
@@ -2602,22 +2443,13 @@
         <v>12</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>253</v>
+        <v>5</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
@@ -2627,17 +2459,14 @@
       <c r="D79" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F79" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H79" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.2">
@@ -2647,14 +2476,23 @@
       <c r="D80" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F80" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="H80" s="2" t="s">
-        <v>12</v>
+        <v>252</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.2">
@@ -2665,10 +2503,16 @@
         <v>12</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.2">
@@ -2678,22 +2522,28 @@
       <c r="D82" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.2">
@@ -2703,37 +2553,22 @@
       <c r="D84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" s="4" t="s">
+    </row>
+    <row r="85" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.2">
@@ -2743,14 +2578,20 @@
       <c r="D86" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E86" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="F86" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.2">
@@ -2761,22 +2602,13 @@
         <v>12</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>253</v>
+        <v>5</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.2">
@@ -2786,18 +2618,15 @@
       <c r="D88" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F88" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H88" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
@@ -2806,14 +2635,23 @@
       <c r="D89" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F89" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="H89" s="2" t="s">
-        <v>12</v>
+        <v>252</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.2">
@@ -2826,11 +2664,14 @@
       <c r="H90" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="I90" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="J90" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.2">
@@ -2841,10 +2682,13 @@
         <v>12</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>133</v>
+        <v>12</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.2">
@@ -2854,70 +2698,73 @@
       <c r="D92" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="H92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>134</v>
+        <v>12</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>136</v>
+      <c r="D94" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D95" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="F95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>137</v>
+        <v>109</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E96" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="F96" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -2925,53 +2772,50 @@
         <v>12</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>253</v>
+        <v>5</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F98" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H98" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F99" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="H99" s="2" t="s">
-        <v>12</v>
+        <v>252</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
@@ -2979,46 +2823,55 @@
         <v>12</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="J100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>145</v>
+        <v>12</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B102" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>146</v>
+      <c r="H102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -3029,786 +2882,808 @@
         <v>5</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D105" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B107" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B108" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C108" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="1" t="s">
+      <c r="B110" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B111" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B108" s="2" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B114" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B115" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B116" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B117" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B118" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B119" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B120" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B121" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B122" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B123" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B124" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B109" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B112" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B113" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B114" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B115" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B116" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F116" s="1"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B117" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B118" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B119" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B120" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B121" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E121" s="1" t="s">
+      <c r="D124" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B122" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E122" s="1" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B125" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B123" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C123" s="1" t="s">
+      <c r="D125" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B126" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E123" s="1" t="s">
+      <c r="D126" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B124" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C124" s="1" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B127" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E124" s="1" t="s">
+      <c r="D127" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B125" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C125" s="1" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B128" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E125" s="1" t="s">
+      <c r="D128" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B126" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C126" s="1" t="s">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E126" s="1" t="s">
+      <c r="D129" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B127" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C127" s="1" t="s">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B130" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E127" s="1" t="s">
+      <c r="D130" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B128" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C128" s="1" t="s">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B131" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E128" s="1" t="s">
+      <c r="D131" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B129" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E129" s="1" t="s">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B132" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B130" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C130" s="1" t="s">
+      <c r="D132" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B133" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E130" s="1" t="s">
+      <c r="D133" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B131" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C131" s="1" t="s">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B134" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E131" s="1" t="s">
+      <c r="D134" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B132" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C132" s="1" t="s">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B135" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E132" s="1" t="s">
+      <c r="D135" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B133" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C133" s="1" t="s">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B136" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E133" s="1" t="s">
+      <c r="D136" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B134" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C134" s="1" t="s">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B137" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E134" s="1" t="s">
+      <c r="D137" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B135" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E135" s="1" t="s">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B138" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B136" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C136" s="1" t="s">
+      <c r="D138" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B139" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E136" s="1" t="s">
+      <c r="D139" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B137" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C137" s="1" t="s">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B140" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E137" s="1" t="s">
+      <c r="D140" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B138" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C138" s="1" t="s">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B141" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E138" s="1" t="s">
+      <c r="D141" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B139" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C139" s="1" t="s">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B142" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E139" s="1" t="s">
+      <c r="D142" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B140" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C140" s="1" t="s">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B143" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E140" s="1" t="s">
+      <c r="D143" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B141" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C141" s="1" t="s">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B144" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E141" s="1" t="s">
+      <c r="D144" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B142" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E142" s="1" t="s">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B145" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B143" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C143" s="1" t="s">
+      <c r="D145" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E143" s="1" t="s">
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B146" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I146" s="3"/>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B147" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B144" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E144" s="3" t="s">
+      <c r="D147" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I144" s="3"/>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B145" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C145" s="1" t="s">
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B148" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E145" s="1" t="s">
+      <c r="D148" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B146" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C146" s="1" t="s">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B149" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E146" s="1" t="s">
+      <c r="D149" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B147" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C147" s="1" t="s">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B150" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D147" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E147" s="1" t="s">
+      <c r="D150" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B148" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C148" s="1" t="s">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B151" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E148" s="1" t="s">
+      <c r="D151" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B149" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C149" s="1" t="s">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B152" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E149" s="1" t="s">
+      <c r="D152" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B150" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C150" s="1" t="s">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B153" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D150" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E150" s="1" t="s">
+      <c r="D153" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B151" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E151" s="1" t="s">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B154" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B152" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C152" s="1" t="s">
+      <c r="D154" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B155" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E152" s="1" t="s">
+      <c r="D155" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B153" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C153" s="1" t="s">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B156" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E153" s="1" t="s">
+      <c r="D156" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B154" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C154" s="1" t="s">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B157" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E154" s="1" t="s">
+      <c r="D157" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B155" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C155" s="1" t="s">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B158" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D155" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E155" s="1" t="s">
+      <c r="D158" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B156" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C156" s="1" t="s">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B159" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D156" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E156" s="1" t="s">
+      <c r="D159" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B157" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C157" s="1" t="s">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B160" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D157" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E157" s="1" t="s">
+      <c r="D160" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B158" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C158" s="1" t="s">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B161" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E158" s="1" t="s">
+      <c r="D161" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B159" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="A1:N5 A6:B6 D6:N6 A122:N1048576 J111:N121 A111:H121 A7:N110">
-    <cfRule type="endsWith" dxfId="31" priority="2" operator="endsWith" text=".txt">
+  <conditionalFormatting sqref="A1:N5 A6:B6 D6:N6 A124:N1048576 J113:N123 A113:H123 A7:N112">
+    <cfRule type="endsWith" dxfId="15" priority="2" operator="endsWith" text=".txt">
       <formula>RIGHT(A1,LEN(".txt"))=".txt"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="30" priority="3" operator="endsWith" text=".tab">
+    <cfRule type="endsWith" dxfId="14" priority="3" operator="endsWith" text=".tab">
       <formula>RIGHT(A1,LEN(".tab"))=".tab"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="29" priority="4" operator="endsWith" text=".tsv">
+    <cfRule type="endsWith" dxfId="13" priority="4" operator="endsWith" text=".tsv">
       <formula>RIGHT(A1,LEN(".tsv"))=".tsv"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="28" priority="5" operator="endsWith" text=".png">
+    <cfRule type="endsWith" dxfId="12" priority="5" operator="endsWith" text=".png">
       <formula>RIGHT(A1,LEN(".png"))=".png"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="27" priority="6" operator="endsWith" text=".pdf">
+    <cfRule type="endsWith" dxfId="11" priority="6" operator="endsWith" text=".pdf">
       <formula>RIGHT(A1,LEN(".pdf"))=".pdf"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="26" priority="7" operator="endsWith" text=".html">
+    <cfRule type="endsWith" dxfId="10" priority="7" operator="endsWith" text=".html">
       <formula>RIGHT(A1,LEN(".html"))=".html"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="25" priority="8" operator="endsWith" text=".bed">
+    <cfRule type="endsWith" dxfId="9" priority="8" operator="endsWith" text=".bed">
       <formula>RIGHT(A1,LEN(".bed"))=".bed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A122:N1048576 J111:N121 A111:H121 A1:N110">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text=".sh">
+  <conditionalFormatting sqref="A124:N1048576 J113:N123 A113:H123 A1:N112">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text=".sh">
       <formula>NOT(ISERROR(SEARCH(".sh",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="24" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="E68:E72 C108:C110 C26:C28 C122:C205 C111:C121 E75:E94" numberStoredAsText="1"/>
+    <ignoredError sqref="E70:E74 C110:C112 C28:C30 C124:C207 C113:C123 E77:E96" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sh/フローチャート.xlsx
+++ b/sh/フローチャート.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="270">
   <si>
     <t>sh upDate.sh</t>
     <phoneticPr fontId="2"/>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>sh backUpOldList.sh</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>022:chipatlas/classification/ct_Statistics-hg19-tab.tsv</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -625,10 +621,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>sh transferDDBJtoNBDC.sh</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>~~~~</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1007,6 +999,22 @@
   </si>
   <si>
     <t>qsub reRunSraTailor.sh</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>backUpOldList</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transferDDBJtoNBDC eachData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transferDDBJtoNBDC assemble</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transferDDBJtoNBDC analysed</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1045,7 +1053,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1055,6 +1063,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,7 +1085,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1079,11 +1093,332 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -1522,8 +1857,8 @@
   </sheetPr>
   <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1704,13 +2039,13 @@
         <v>8</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -1761,7 +2096,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H18" s="2"/>
       <c r="J18" s="2"/>
@@ -1788,12 +2123,12 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1807,7 +2142,7 @@
         <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>33</v>
@@ -1833,48 +2168,48 @@
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1893,23 +2228,23 @@
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>39</v>
+      <c r="A35" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -1917,12 +2252,12 @@
         <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>33</v>
@@ -1933,13 +2268,13 @@
         <v>14</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -1947,35 +2282,35 @@
         <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H41" s="2"/>
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D42" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="H42" s="2"/>
       <c r="J42" s="2"/>
@@ -1985,19 +2320,19 @@
         <v>8</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J43" s="2"/>
     </row>
@@ -2006,10 +2341,10 @@
         <v>12</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J44" s="2"/>
     </row>
@@ -2018,13 +2353,13 @@
         <v>8</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -2032,21 +2367,21 @@
         <v>5</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H47" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -2057,7 +2392,7 @@
         <v>5</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -2065,7 +2400,7 @@
         <v>5</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -2073,7 +2408,7 @@
         <v>5</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -2081,30 +2416,30 @@
         <v>5</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -2112,13 +2447,13 @@
         <v>12</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -2129,7 +2464,7 @@
         <v>5</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -2140,7 +2475,7 @@
         <v>5</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2151,13 +2486,13 @@
         <v>8</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -2168,7 +2503,7 @@
         <v>5</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -2179,7 +2514,7 @@
         <v>5</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -2192,19 +2527,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -2212,13 +2547,13 @@
         <v>12</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -2229,7 +2564,7 @@
         <v>5</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -2240,13 +2575,13 @@
         <v>8</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
@@ -2257,7 +2592,7 @@
         <v>5</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
@@ -2268,7 +2603,7 @@
         <v>5</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
@@ -2281,13 +2616,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
@@ -2298,7 +2633,7 @@
         <v>5</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
@@ -2306,16 +2641,16 @@
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
@@ -2323,16 +2658,16 @@
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
@@ -2340,16 +2675,16 @@
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
@@ -2357,16 +2692,16 @@
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
@@ -2374,16 +2709,16 @@
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
@@ -2397,19 +2732,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F76" s="2" t="s">
+      <c r="G76" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
@@ -2420,19 +2755,19 @@
         <v>12</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
@@ -2449,7 +2784,7 @@
         <v>5</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
@@ -2466,7 +2801,7 @@
         <v>5</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.2">
@@ -2477,22 +2812,22 @@
         <v>12</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.2">
@@ -2506,13 +2841,13 @@
         <v>12</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.2">
@@ -2529,7 +2864,7 @@
         <v>5</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.2">
@@ -2543,7 +2878,7 @@
         <v>5</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.2">
@@ -2559,16 +2894,16 @@
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="G85" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.2">
@@ -2579,19 +2914,19 @@
         <v>12</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.2">
@@ -2608,7 +2943,7 @@
         <v>5</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.2">
@@ -2625,7 +2960,7 @@
         <v>5</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.2">
@@ -2636,22 +2971,22 @@
         <v>12</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.2">
@@ -2665,13 +3000,13 @@
         <v>12</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.2">
@@ -2688,7 +3023,7 @@
         <v>5</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.2">
@@ -2705,7 +3040,7 @@
         <v>5</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.2">
@@ -2719,7 +3054,7 @@
         <v>5</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.2">
@@ -2735,16 +3070,16 @@
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="G95" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.2">
@@ -2752,19 +3087,19 @@
         <v>12</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -2778,7 +3113,7 @@
         <v>5</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -2792,7 +3127,7 @@
         <v>5</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
@@ -2800,22 +3135,22 @@
         <v>12</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
@@ -2826,13 +3161,13 @@
         <v>12</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -2846,7 +3181,7 @@
         <v>5</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -2857,7 +3192,7 @@
         <v>5</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
@@ -2865,13 +3200,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -2882,7 +3217,7 @@
         <v>5</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
@@ -2893,7 +3228,7 @@
         <v>5</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
@@ -2904,7 +3239,7 @@
         <v>5</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
@@ -2917,766 +3252,766 @@
         <v>8</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>149</v>
+      <c r="A110" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C110" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C111" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>149</v>
+      <c r="A113" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B115" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B116" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B117" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F117" s="1"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B118" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F118" s="1"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B119" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F119" s="1"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B120" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B121" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B122" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B123" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B124" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B125" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B126" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B127" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B128" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B135" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B136" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B137" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B138" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B139" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B141" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B142" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B143" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B144" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B145" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B146" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I146" s="3"/>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B147" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B148" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B149" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B150" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B151" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B152" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B153" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B154" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B155" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B156" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B157" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B158" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B159" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B160" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B161" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A1:N5 A6:B6 D6:N6 A124:N1048576 J113:N123 A113:H123 A7:N112">
-    <cfRule type="endsWith" dxfId="15" priority="2" operator="endsWith" text=".txt">
+    <cfRule type="endsWith" dxfId="47" priority="2" operator="endsWith" text=".txt">
       <formula>RIGHT(A1,LEN(".txt"))=".txt"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="14" priority="3" operator="endsWith" text=".tab">
+    <cfRule type="endsWith" dxfId="46" priority="3" operator="endsWith" text=".tab">
       <formula>RIGHT(A1,LEN(".tab"))=".tab"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="13" priority="4" operator="endsWith" text=".tsv">
+    <cfRule type="endsWith" dxfId="45" priority="4" operator="endsWith" text=".tsv">
       <formula>RIGHT(A1,LEN(".tsv"))=".tsv"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="12" priority="5" operator="endsWith" text=".png">
+    <cfRule type="endsWith" dxfId="44" priority="5" operator="endsWith" text=".png">
       <formula>RIGHT(A1,LEN(".png"))=".png"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="11" priority="6" operator="endsWith" text=".pdf">
+    <cfRule type="endsWith" dxfId="43" priority="6" operator="endsWith" text=".pdf">
       <formula>RIGHT(A1,LEN(".pdf"))=".pdf"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="10" priority="7" operator="endsWith" text=".html">
+    <cfRule type="endsWith" dxfId="42" priority="7" operator="endsWith" text=".html">
       <formula>RIGHT(A1,LEN(".html"))=".html"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="9" priority="8" operator="endsWith" text=".bed">
+    <cfRule type="endsWith" dxfId="41" priority="8" operator="endsWith" text=".bed">
       <formula>RIGHT(A1,LEN(".bed"))=".bed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:N1048576 J113:N123 A113:H123 A1:N112">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text=".sh">
+    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text=".sh">
       <formula>NOT(ISERROR(SEARCH(".sh",A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/sh/フローチャート.xlsx
+++ b/sh/フローチャート.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Oki/Desktop/沖　真弥/実験/chipAtlas/スクリプト/chipatlas_git/sh/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Oki/Dropbox/sh_chip-atlas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0EFC56-4709-F44D-B68B-5C4337BDBB1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A627C1-4266-9A4A-97A1-93709D63F43A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="45540" windowHeight="24900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="300">
   <si>
     <t>sh upDate.sh</t>
     <phoneticPr fontId="2"/>
@@ -178,14 +178,6 @@
   </si>
   <si>
     <t>024:chipatlas/classification/ct_Index.hg19.tab</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sh bed4ToBed9.sh 021 022 018</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>|===</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1152,6 +1144,14 @@
       </rPr>
       <t>:Collabo/yojima/share/ChipAtlasAnnotation/word_data/hg19/20180827</t>
     </r>
+  </si>
+  <si>
+    <t>qsub bed4ToBed9.sh 021 022 018</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>qsub makeTag.sh 023 024</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1250,167 +1250,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="168">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="152">
     <dxf>
       <font>
         <color theme="0"/>
@@ -3212,13 +3052,13 @@
   </sheetPr>
   <dimension ref="A1:K182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="E45" zoomScale="150" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="26.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="32.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.875" style="1" customWidth="1"/>
@@ -3233,7 +3073,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="22">
       <c r="A1" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3263,7 +3103,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="2"/>
@@ -3394,13 +3234,13 @@
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -3425,7 +3265,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>8</v>
@@ -3451,7 +3291,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H18" s="2"/>
       <c r="J18" s="2"/>
@@ -3478,12 +3318,12 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3497,10 +3337,10 @@
         <v>32</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3508,7 +3348,7 @@
         <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3524,19 +3364,19 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3544,7 +3384,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>3</v>
@@ -3558,15 +3398,15 @@
         <v>4</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="23">
       <c r="D31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3574,47 +3414,47 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="B34" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="B35" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3638,12 +3478,12 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>8</v>
@@ -3662,9 +3502,15 @@
     </row>
     <row r="44" spans="1:10">
       <c r="B44" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3673,13 +3519,13 @@
         <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3687,35 +3533,35 @@
         <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="G46" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H46" s="2"/>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10">
       <c r="D47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="H47" s="2"/>
       <c r="J47" s="2"/>
@@ -3725,19 +3571,19 @@
         <v>5</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="J48" s="2"/>
     </row>
@@ -3746,10 +3592,10 @@
         <v>9</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J49" s="2"/>
     </row>
@@ -3761,7 +3607,7 @@
         <v>12</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J50" s="2"/>
     </row>
@@ -3770,16 +3616,16 @@
         <v>9</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3787,13 +3633,13 @@
         <v>5</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3802,42 +3648,46 @@
         <v>4</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="F54" s="1"/>
       <c r="H54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="F55" s="1"/>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="J55" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="F56" s="1"/>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="J56" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3849,7 +3699,7 @@
         <v>4</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3858,7 +3708,7 @@
         <v>4</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3867,7 +3717,7 @@
         <v>4</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3876,7 +3726,7 @@
         <v>4</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3884,25 +3734,25 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="D62" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3910,13 +3760,13 @@
         <v>9</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3927,7 +3777,7 @@
         <v>4</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="2:9">
@@ -3938,7 +3788,7 @@
         <v>4</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:9">
@@ -3949,13 +3799,13 @@
         <v>5</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="2:9">
@@ -3966,7 +3816,7 @@
         <v>4</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="2:9">
@@ -3977,7 +3827,7 @@
         <v>4</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="2:9">
@@ -3990,19 +3840,19 @@
         <v>5</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="2:9">
@@ -4010,13 +3860,13 @@
         <v>9</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="2:9">
@@ -4027,7 +3877,7 @@
         <v>4</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="2:9">
@@ -4038,13 +3888,13 @@
         <v>5</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="2:9">
@@ -4055,7 +3905,7 @@
         <v>4</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="2:9">
@@ -4066,7 +3916,7 @@
         <v>4</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="2:9">
@@ -4079,13 +3929,13 @@
         <v>5</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="2:9">
@@ -4096,7 +3946,7 @@
         <v>4</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="2:9">
@@ -4104,16 +3954,16 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="80" spans="2:9">
@@ -4121,16 +3971,16 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="2:11">
@@ -4138,16 +3988,16 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="2:11">
@@ -4155,16 +4005,16 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F82" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="83" spans="2:11">
@@ -4172,16 +4022,16 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="2:11">
@@ -4195,19 +4045,19 @@
         <v>5</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="86" spans="2:11">
@@ -4218,19 +4068,19 @@
         <v>9</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="2:11">
@@ -4247,7 +4097,7 @@
         <v>4</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="2:11">
@@ -4264,7 +4114,7 @@
         <v>4</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="89" spans="2:11">
@@ -4275,22 +4125,22 @@
         <v>9</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="2:11">
@@ -4304,13 +4154,13 @@
         <v>9</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="2:11">
@@ -4327,7 +4177,7 @@
         <v>4</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="2:11">
@@ -4341,7 +4191,7 @@
         <v>4</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="2:11">
@@ -4357,16 +4207,16 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="2:11">
@@ -4377,19 +4227,19 @@
         <v>9</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="2:11">
@@ -4406,7 +4256,7 @@
         <v>4</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="2:11">
@@ -4423,7 +4273,7 @@
         <v>4</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="2:11">
@@ -4434,22 +4284,22 @@
         <v>9</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="2:11">
@@ -4463,13 +4313,13 @@
         <v>9</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="2:11">
@@ -4486,7 +4336,7 @@
         <v>4</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="2:11">
@@ -4503,7 +4353,7 @@
         <v>4</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="2:11">
@@ -4517,7 +4367,7 @@
         <v>4</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103" spans="2:11">
@@ -4533,16 +4383,16 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="2:11">
@@ -4550,19 +4400,19 @@
         <v>9</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="2:11">
@@ -4576,7 +4426,7 @@
         <v>4</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="2:11">
@@ -4590,7 +4440,7 @@
         <v>4</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="2:11">
@@ -4598,22 +4448,22 @@
         <v>9</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="2:11">
@@ -4624,13 +4474,13 @@
         <v>9</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="2:11">
@@ -4644,7 +4494,7 @@
         <v>4</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="2:11">
@@ -4655,7 +4505,7 @@
         <v>4</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="2:11">
@@ -4663,13 +4513,13 @@
         <v>5</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4680,7 +4530,7 @@
         <v>4</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4691,7 +4541,7 @@
         <v>4</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4702,7 +4552,7 @@
         <v>4</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4715,13 +4565,13 @@
         <v>5</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4729,7 +4579,7 @@
         <v>4</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4737,7 +4587,7 @@
         <v>4</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4745,7 +4595,7 @@
         <v>4</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4753,1368 +4603,1368 @@
         <v>4</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C123" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="B124" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C124" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="B125" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="B126" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="129" spans="2:6">
       <c r="B129" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="130" spans="2:6">
       <c r="B130" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="131" spans="2:6">
       <c r="B131" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C131" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="132" spans="2:6">
       <c r="B132" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C132" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="133" spans="2:6">
       <c r="B133" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134" spans="2:6">
       <c r="B134" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F134" s="1"/>
     </row>
     <row r="135" spans="2:6">
       <c r="B135" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F135" s="1"/>
     </row>
     <row r="136" spans="2:6">
       <c r="B136" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F136" s="1"/>
     </row>
     <row r="137" spans="2:6">
       <c r="B137" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="138" spans="2:6">
       <c r="B138" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="139" spans="2:6">
       <c r="B139" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="140" spans="2:6">
       <c r="B140" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="141" spans="2:6">
       <c r="B141" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C141" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="142" spans="2:6">
       <c r="B142" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="2:6">
       <c r="B143" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F143" s="1"/>
     </row>
     <row r="144" spans="2:6">
       <c r="B144" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F144" s="1"/>
     </row>
     <row r="145" spans="2:6">
       <c r="B145" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F145" s="1"/>
     </row>
     <row r="146" spans="2:6">
       <c r="B146" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F146" s="1"/>
     </row>
     <row r="147" spans="2:6">
       <c r="B147" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F147" s="1"/>
     </row>
     <row r="148" spans="2:6">
       <c r="B148" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F148" s="1"/>
     </row>
     <row r="149" spans="2:6">
       <c r="B149" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F149" s="1"/>
     </row>
     <row r="150" spans="2:6">
       <c r="B150" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F150" s="1"/>
     </row>
     <row r="151" spans="2:6">
       <c r="B151" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F151" s="1"/>
     </row>
     <row r="152" spans="2:6">
       <c r="B152" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F152" s="1"/>
     </row>
     <row r="153" spans="2:6">
       <c r="B153" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F153" s="1"/>
     </row>
     <row r="154" spans="2:6">
       <c r="B154" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F154" s="1"/>
     </row>
     <row r="155" spans="2:6">
       <c r="B155" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F155" s="1"/>
     </row>
     <row r="156" spans="2:6">
       <c r="B156" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F156" s="1"/>
     </row>
     <row r="157" spans="2:6">
       <c r="B157" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F157" s="1"/>
     </row>
     <row r="158" spans="2:6">
       <c r="B158" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F158" s="1"/>
     </row>
     <row r="159" spans="2:6">
       <c r="B159" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="160" spans="2:6">
       <c r="B160" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="161" spans="2:9">
       <c r="B161" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="162" spans="2:9">
       <c r="B162" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="163" spans="2:9">
       <c r="B163" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I163" s="3"/>
     </row>
     <row r="164" spans="2:9">
       <c r="B164" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="165" spans="2:9">
       <c r="B165" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="166" spans="2:9">
       <c r="B166" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="167" spans="2:9">
       <c r="B167" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="168" spans="2:9">
       <c r="B168" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="169" spans="2:9">
       <c r="B169" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="170" spans="2:9">
       <c r="B170" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="171" spans="2:9">
       <c r="B171" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="172" spans="2:9">
       <c r="B172" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="173" spans="2:9">
       <c r="B173" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="174" spans="2:9">
       <c r="B174" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="175" spans="2:9">
       <c r="B175" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F175" s="1"/>
     </row>
     <row r="176" spans="2:9">
       <c r="B176" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F176" s="1"/>
     </row>
     <row r="177" spans="2:6">
       <c r="B177" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F177" s="1"/>
     </row>
     <row r="178" spans="2:6">
       <c r="B178" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F178" s="1"/>
     </row>
     <row r="179" spans="2:6">
       <c r="B179" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="180" spans="2:6">
       <c r="B180" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="181" spans="2:6">
       <c r="B181" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="182" spans="2:6">
       <c r="B182" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="A6:B6 D6:N6 A141:N178 A7:N27 F51 A2:N5 A122:N127 A118:C118 F118:N118 A121:C121 E121:N121 A183:N1048576 F179:N182 A179:C182 A52:N117 A128:H140 J128:N140 A32:N50">
-    <cfRule type="endsWith" dxfId="167" priority="162" operator="endsWith" text=".txt">
+  <conditionalFormatting sqref="A6:B6 D6:N6 A141:N178 A7:N27 F51 A2:N5 A122:N127 A118:C118 F118:N118 A121:C121 E121:N121 A183:N1048576 F179:N182 A179:C182 A128:H140 J128:N140 A32:N50 A52:N117">
+    <cfRule type="endsWith" dxfId="151" priority="162" operator="endsWith" text=".txt">
       <formula>RIGHT(A2,LEN(".txt"))=".txt"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="166" priority="163" operator="endsWith" text=".tab">
+    <cfRule type="endsWith" dxfId="150" priority="163" operator="endsWith" text=".tab">
       <formula>RIGHT(A2,LEN(".tab"))=".tab"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="165" priority="164" operator="endsWith" text=".tsv">
+    <cfRule type="endsWith" dxfId="149" priority="164" operator="endsWith" text=".tsv">
       <formula>RIGHT(A2,LEN(".tsv"))=".tsv"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="164" priority="165" operator="endsWith" text=".png">
+    <cfRule type="endsWith" dxfId="148" priority="165" operator="endsWith" text=".png">
       <formula>RIGHT(A2,LEN(".png"))=".png"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="163" priority="166" operator="endsWith" text=".pdf">
+    <cfRule type="endsWith" dxfId="147" priority="166" operator="endsWith" text=".pdf">
       <formula>RIGHT(A2,LEN(".pdf"))=".pdf"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="162" priority="167" operator="endsWith" text=".html">
+    <cfRule type="endsWith" dxfId="146" priority="167" operator="endsWith" text=".html">
       <formula>RIGHT(A2,LEN(".html"))=".html"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="161" priority="168" operator="endsWith" text=".bed">
+    <cfRule type="endsWith" dxfId="145" priority="168" operator="endsWith" text=".bed">
       <formula>RIGHT(A2,LEN(".bed"))=".bed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A141:N178 F51 A2:N27 A122:N127 A118:C118 F118:N118 A121:C121 E121:N121 A183:N1048576 F179:N182 A179:C182 A52:N117 A128:H140 J128:N140 A32:N50">
-    <cfRule type="containsText" dxfId="160" priority="161" operator="containsText" text=".sh">
+  <conditionalFormatting sqref="A141:N178 F51 A2:N27 A122:N127 A118:C118 F118:N118 A121:C121 E121:N121 A183:N1048576 F179:N182 A179:C182 A128:H140 J128:N140 A32:N50 A52:N117">
+    <cfRule type="containsText" dxfId="144" priority="161" operator="containsText" text=".sh">
       <formula>NOT(ISERROR(SEARCH(".sh",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:N51 A51:E51 G51">
-    <cfRule type="endsWith" dxfId="159" priority="154" operator="endsWith" text=".txt">
+    <cfRule type="endsWith" dxfId="143" priority="154" operator="endsWith" text=".txt">
       <formula>RIGHT(A51,LEN(".txt"))=".txt"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="158" priority="155" operator="endsWith" text=".tab">
+    <cfRule type="endsWith" dxfId="142" priority="155" operator="endsWith" text=".tab">
       <formula>RIGHT(A51,LEN(".tab"))=".tab"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="157" priority="156" operator="endsWith" text=".tsv">
+    <cfRule type="endsWith" dxfId="141" priority="156" operator="endsWith" text=".tsv">
       <formula>RIGHT(A51,LEN(".tsv"))=".tsv"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="156" priority="157" operator="endsWith" text=".png">
+    <cfRule type="endsWith" dxfId="140" priority="157" operator="endsWith" text=".png">
       <formula>RIGHT(A51,LEN(".png"))=".png"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="155" priority="158" operator="endsWith" text=".pdf">
+    <cfRule type="endsWith" dxfId="139" priority="158" operator="endsWith" text=".pdf">
       <formula>RIGHT(A51,LEN(".pdf"))=".pdf"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="154" priority="159" operator="endsWith" text=".html">
+    <cfRule type="endsWith" dxfId="138" priority="159" operator="endsWith" text=".html">
       <formula>RIGHT(A51,LEN(".html"))=".html"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="153" priority="160" operator="endsWith" text=".bed">
+    <cfRule type="endsWith" dxfId="137" priority="160" operator="endsWith" text=".bed">
       <formula>RIGHT(A51,LEN(".bed"))=".bed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:N51 A51:E51 G51">
-    <cfRule type="containsText" dxfId="152" priority="153" operator="containsText" text=".sh">
+    <cfRule type="containsText" dxfId="136" priority="153" operator="containsText" text=".sh">
       <formula>NOT(ISERROR(SEARCH(".sh",A51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="endsWith" dxfId="151" priority="146" operator="endsWith" text=".txt">
+    <cfRule type="endsWith" dxfId="135" priority="146" operator="endsWith" text=".txt">
       <formula>RIGHT(H51,LEN(".txt"))=".txt"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="150" priority="147" operator="endsWith" text=".tab">
+    <cfRule type="endsWith" dxfId="134" priority="147" operator="endsWith" text=".tab">
       <formula>RIGHT(H51,LEN(".tab"))=".tab"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="149" priority="148" operator="endsWith" text=".tsv">
+    <cfRule type="endsWith" dxfId="133" priority="148" operator="endsWith" text=".tsv">
       <formula>RIGHT(H51,LEN(".tsv"))=".tsv"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="148" priority="149" operator="endsWith" text=".png">
+    <cfRule type="endsWith" dxfId="132" priority="149" operator="endsWith" text=".png">
       <formula>RIGHT(H51,LEN(".png"))=".png"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="147" priority="150" operator="endsWith" text=".pdf">
+    <cfRule type="endsWith" dxfId="131" priority="150" operator="endsWith" text=".pdf">
       <formula>RIGHT(H51,LEN(".pdf"))=".pdf"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="146" priority="151" operator="endsWith" text=".html">
+    <cfRule type="endsWith" dxfId="130" priority="151" operator="endsWith" text=".html">
       <formula>RIGHT(H51,LEN(".html"))=".html"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="145" priority="152" operator="endsWith" text=".bed">
+    <cfRule type="endsWith" dxfId="129" priority="152" operator="endsWith" text=".bed">
       <formula>RIGHT(H51,LEN(".bed"))=".bed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="containsText" dxfId="144" priority="145" operator="containsText" text=".sh">
+    <cfRule type="containsText" dxfId="128" priority="145" operator="containsText" text=".sh">
       <formula>NOT(ISERROR(SEARCH(".sh",H51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:C119 E119:N119">
-    <cfRule type="endsWith" dxfId="143" priority="138" operator="endsWith" text=".txt">
+    <cfRule type="endsWith" dxfId="127" priority="138" operator="endsWith" text=".txt">
       <formula>RIGHT(A119,LEN(".txt"))=".txt"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="142" priority="139" operator="endsWith" text=".tab">
+    <cfRule type="endsWith" dxfId="126" priority="139" operator="endsWith" text=".tab">
       <formula>RIGHT(A119,LEN(".tab"))=".tab"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="141" priority="140" operator="endsWith" text=".tsv">
+    <cfRule type="endsWith" dxfId="125" priority="140" operator="endsWith" text=".tsv">
       <formula>RIGHT(A119,LEN(".tsv"))=".tsv"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="140" priority="141" operator="endsWith" text=".png">
+    <cfRule type="endsWith" dxfId="124" priority="141" operator="endsWith" text=".png">
       <formula>RIGHT(A119,LEN(".png"))=".png"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="139" priority="142" operator="endsWith" text=".pdf">
+    <cfRule type="endsWith" dxfId="123" priority="142" operator="endsWith" text=".pdf">
       <formula>RIGHT(A119,LEN(".pdf"))=".pdf"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="138" priority="143" operator="endsWith" text=".html">
+    <cfRule type="endsWith" dxfId="122" priority="143" operator="endsWith" text=".html">
       <formula>RIGHT(A119,LEN(".html"))=".html"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="137" priority="144" operator="endsWith" text=".bed">
+    <cfRule type="endsWith" dxfId="121" priority="144" operator="endsWith" text=".bed">
       <formula>RIGHT(A119,LEN(".bed"))=".bed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:C119 E119:N119">
-    <cfRule type="containsText" dxfId="136" priority="137" operator="containsText" text=".sh">
+    <cfRule type="containsText" dxfId="120" priority="137" operator="containsText" text=".sh">
       <formula>NOT(ISERROR(SEARCH(".sh",A119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="endsWith" dxfId="135" priority="130" operator="endsWith" text=".txt">
+    <cfRule type="endsWith" dxfId="119" priority="130" operator="endsWith" text=".txt">
       <formula>RIGHT(E118,LEN(".txt"))=".txt"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="134" priority="131" operator="endsWith" text=".tab">
+    <cfRule type="endsWith" dxfId="118" priority="131" operator="endsWith" text=".tab">
       <formula>RIGHT(E118,LEN(".tab"))=".tab"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="133" priority="132" operator="endsWith" text=".tsv">
+    <cfRule type="endsWith" dxfId="117" priority="132" operator="endsWith" text=".tsv">
       <formula>RIGHT(E118,LEN(".tsv"))=".tsv"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="132" priority="133" operator="endsWith" text=".png">
+    <cfRule type="endsWith" dxfId="116" priority="133" operator="endsWith" text=".png">
       <formula>RIGHT(E118,LEN(".png"))=".png"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="131" priority="134" operator="endsWith" text=".pdf">
+    <cfRule type="endsWith" dxfId="115" priority="134" operator="endsWith" text=".pdf">
       <formula>RIGHT(E118,LEN(".pdf"))=".pdf"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="130" priority="135" operator="endsWith" text=".html">
+    <cfRule type="endsWith" dxfId="114" priority="135" operator="endsWith" text=".html">
       <formula>RIGHT(E118,LEN(".html"))=".html"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="129" priority="136" operator="endsWith" text=".bed">
+    <cfRule type="endsWith" dxfId="113" priority="136" operator="endsWith" text=".bed">
       <formula>RIGHT(E118,LEN(".bed"))=".bed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="containsText" dxfId="128" priority="129" operator="containsText" text=".sh">
+    <cfRule type="containsText" dxfId="112" priority="129" operator="containsText" text=".sh">
       <formula>NOT(ISERROR(SEARCH(".sh",E118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:C120 E120:N120">
-    <cfRule type="endsWith" dxfId="127" priority="122" operator="endsWith" text=".txt">
+    <cfRule type="endsWith" dxfId="111" priority="122" operator="endsWith" text=".txt">
       <formula>RIGHT(A120,LEN(".txt"))=".txt"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="126" priority="123" operator="endsWith" text=".tab">
+    <cfRule type="endsWith" dxfId="110" priority="123" operator="endsWith" text=".tab">
       <formula>RIGHT(A120,LEN(".tab"))=".tab"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="125" priority="124" operator="endsWith" text=".tsv">
+    <cfRule type="endsWith" dxfId="109" priority="124" operator="endsWith" text=".tsv">
       <formula>RIGHT(A120,LEN(".tsv"))=".tsv"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="124" priority="125" operator="endsWith" text=".png">
+    <cfRule type="endsWith" dxfId="108" priority="125" operator="endsWith" text=".png">
       <formula>RIGHT(A120,LEN(".png"))=".png"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="123" priority="126" operator="endsWith" text=".pdf">
+    <cfRule type="endsWith" dxfId="107" priority="126" operator="endsWith" text=".pdf">
       <formula>RIGHT(A120,LEN(".pdf"))=".pdf"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="122" priority="127" operator="endsWith" text=".html">
+    <cfRule type="endsWith" dxfId="106" priority="127" operator="endsWith" text=".html">
       <formula>RIGHT(A120,LEN(".html"))=".html"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="121" priority="128" operator="endsWith" text=".bed">
+    <cfRule type="endsWith" dxfId="105" priority="128" operator="endsWith" text=".bed">
       <formula>RIGHT(A120,LEN(".bed"))=".bed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:C120 E120:N120">
-    <cfRule type="containsText" dxfId="120" priority="121" operator="containsText" text=".sh">
+    <cfRule type="containsText" dxfId="104" priority="121" operator="containsText" text=".sh">
       <formula>NOT(ISERROR(SEARCH(".sh",A120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D118:D121">
-    <cfRule type="endsWith" dxfId="119" priority="114" operator="endsWith" text=".txt">
+    <cfRule type="endsWith" dxfId="103" priority="114" operator="endsWith" text=".txt">
       <formula>RIGHT(D118,LEN(".txt"))=".txt"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="118" priority="115" operator="endsWith" text=".tab">
+    <cfRule type="endsWith" dxfId="102" priority="115" operator="endsWith" text=".tab">
       <formula>RIGHT(D118,LEN(".tab"))=".tab"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="117" priority="116" operator="endsWith" text=".tsv">
+    <cfRule type="endsWith" dxfId="101" priority="116" operator="endsWith" text=".tsv">
       <formula>RIGHT(D118,LEN(".tsv"))=".tsv"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="116" priority="117" operator="endsWith" text=".png">
+    <cfRule type="endsWith" dxfId="100" priority="117" operator="endsWith" text=".png">
       <formula>RIGHT(D118,LEN(".png"))=".png"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="115" priority="118" operator="endsWith" text=".pdf">
+    <cfRule type="endsWith" dxfId="99" priority="118" operator="endsWith" text=".pdf">
       <formula>RIGHT(D118,LEN(".pdf"))=".pdf"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="114" priority="119" operator="endsWith" text=".html">
+    <cfRule type="endsWith" dxfId="98" priority="119" operator="endsWith" text=".html">
       <formula>RIGHT(D118,LEN(".html"))=".html"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="113" priority="120" operator="endsWith" text=".bed">
+    <cfRule type="endsWith" dxfId="97" priority="120" operator="endsWith" text=".bed">
       <formula>RIGHT(D118,LEN(".bed"))=".bed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D118:D121">
-    <cfRule type="containsText" dxfId="112" priority="113" operator="containsText" text=".sh">
+    <cfRule type="containsText" dxfId="96" priority="113" operator="containsText" text=".sh">
       <formula>NOT(ISERROR(SEARCH(".sh",D118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E182">
-    <cfRule type="endsWith" dxfId="111" priority="106" operator="endsWith" text=".txt">
+    <cfRule type="endsWith" dxfId="95" priority="106" operator="endsWith" text=".txt">
       <formula>RIGHT(E182,LEN(".txt"))=".txt"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="110" priority="107" operator="endsWith" text=".tab">
+    <cfRule type="endsWith" dxfId="94" priority="107" operator="endsWith" text=".tab">
       <formula>RIGHT(E182,LEN(".tab"))=".tab"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="109" priority="108" operator="endsWith" text=".tsv">
+    <cfRule type="endsWith" dxfId="93" priority="108" operator="endsWith" text=".tsv">
       <formula>RIGHT(E182,LEN(".tsv"))=".tsv"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="108" priority="109" operator="endsWith" text=".png">
+    <cfRule type="endsWith" dxfId="92" priority="109" operator="endsWith" text=".png">
       <formula>RIGHT(E182,LEN(".png"))=".png"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="107" priority="110" operator="endsWith" text=".pdf">
+    <cfRule type="endsWith" dxfId="91" priority="110" operator="endsWith" text=".pdf">
       <formula>RIGHT(E182,LEN(".pdf"))=".pdf"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="106" priority="111" operator="endsWith" text=".html">
+    <cfRule type="endsWith" dxfId="90" priority="111" operator="endsWith" text=".html">
       <formula>RIGHT(E182,LEN(".html"))=".html"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="105" priority="112" operator="endsWith" text=".bed">
+    <cfRule type="endsWith" dxfId="89" priority="112" operator="endsWith" text=".bed">
       <formula>RIGHT(E182,LEN(".bed"))=".bed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E182">
-    <cfRule type="containsText" dxfId="104" priority="105" operator="containsText" text=".sh">
+    <cfRule type="containsText" dxfId="88" priority="105" operator="containsText" text=".sh">
       <formula>NOT(ISERROR(SEARCH(".sh",E182)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E180">
-    <cfRule type="endsWith" dxfId="103" priority="98" operator="endsWith" text=".txt">
+    <cfRule type="endsWith" dxfId="87" priority="98" operator="endsWith" text=".txt">
       <formula>RIGHT(E180,LEN(".txt"))=".txt"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="102" priority="99" operator="endsWith" text=".tab">
+    <cfRule type="endsWith" dxfId="86" priority="99" operator="endsWith" text=".tab">
       <formula>RIGHT(E180,LEN(".tab"))=".tab"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="101" priority="100" operator="endsWith" text=".tsv">
+    <cfRule type="endsWith" dxfId="85" priority="100" operator="endsWith" text=".tsv">
       <formula>RIGHT(E180,LEN(".tsv"))=".tsv"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="100" priority="101" operator="endsWith" text=".png">
+    <cfRule type="endsWith" dxfId="84" priority="101" operator="endsWith" text=".png">
       <formula>RIGHT(E180,LEN(".png"))=".png"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="99" priority="102" operator="endsWith" text=".pdf">
+    <cfRule type="endsWith" dxfId="83" priority="102" operator="endsWith" text=".pdf">
       <formula>RIGHT(E180,LEN(".pdf"))=".pdf"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="98" priority="103" operator="endsWith" text=".html">
+    <cfRule type="endsWith" dxfId="82" priority="103" operator="endsWith" text=".html">
       <formula>RIGHT(E180,LEN(".html"))=".html"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="97" priority="104" operator="endsWith" text=".bed">
+    <cfRule type="endsWith" dxfId="81" priority="104" operator="endsWith" text=".bed">
       <formula>RIGHT(E180,LEN(".bed"))=".bed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E180">
-    <cfRule type="containsText" dxfId="96" priority="97" operator="containsText" text=".sh">
+    <cfRule type="containsText" dxfId="80" priority="97" operator="containsText" text=".sh">
       <formula>NOT(ISERROR(SEARCH(".sh",E180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E179">
-    <cfRule type="endsWith" dxfId="95" priority="90" operator="endsWith" text=".txt">
+    <cfRule type="endsWith" dxfId="79" priority="90" operator="endsWith" text=".txt">
       <formula>RIGHT(E179,LEN(".txt"))=".txt"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="94" priority="91" operator="endsWith" text=".tab">
+    <cfRule type="endsWith" dxfId="78" priority="91" operator="endsWith" text=".tab">
       <formula>RIGHT(E179,LEN(".tab"))=".tab"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="93" priority="92" operator="endsWith" text=".tsv">
+    <cfRule type="endsWith" dxfId="77" priority="92" operator="endsWith" text=".tsv">
       <formula>RIGHT(E179,LEN(".tsv"))=".tsv"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="92" priority="93" operator="endsWith" text=".png">
+    <cfRule type="endsWith" dxfId="76" priority="93" operator="endsWith" text=".png">
       <formula>RIGHT(E179,LEN(".png"))=".png"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="91" priority="94" operator="endsWith" text=".pdf">
+    <cfRule type="endsWith" dxfId="75" priority="94" operator="endsWith" text=".pdf">
       <formula>RIGHT(E179,LEN(".pdf"))=".pdf"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="90" priority="95" operator="endsWith" text=".html">
+    <cfRule type="endsWith" dxfId="74" priority="95" operator="endsWith" text=".html">
       <formula>RIGHT(E179,LEN(".html"))=".html"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="89" priority="96" operator="endsWith" text=".bed">
+    <cfRule type="endsWith" dxfId="73" priority="96" operator="endsWith" text=".bed">
       <formula>RIGHT(E179,LEN(".bed"))=".bed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E179">
-    <cfRule type="containsText" dxfId="88" priority="89" operator="containsText" text=".sh">
+    <cfRule type="containsText" dxfId="72" priority="89" operator="containsText" text=".sh">
       <formula>NOT(ISERROR(SEARCH(".sh",E179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E181">
-    <cfRule type="endsWith" dxfId="87" priority="82" operator="endsWith" text=".txt">
+    <cfRule type="endsWith" dxfId="71" priority="82" operator="endsWith" text=".txt">
       <formula>RIGHT(E181,LEN(".txt"))=".txt"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="86" priority="83" operator="endsWith" text=".tab">
+    <cfRule type="endsWith" dxfId="70" priority="83" operator="endsWith" text=".tab">
       <formula>RIGHT(E181,LEN(".tab"))=".tab"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="85" priority="84" operator="endsWith" text=".tsv">
+    <cfRule type="endsWith" dxfId="69" priority="84" operator="endsWith" text=".tsv">
       <formula>RIGHT(E181,LEN(".tsv"))=".tsv"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="84" priority="85" operator="endsWith" text=".png">
+    <cfRule type="endsWith" dxfId="68" priority="85" operator="endsWith" text=".png">
       <formula>RIGHT(E181,LEN(".png"))=".png"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="83" priority="86" operator="endsWith" text=".pdf">
+    <cfRule type="endsWith" dxfId="67" priority="86" operator="endsWith" text=".pdf">
       <formula>RIGHT(E181,LEN(".pdf"))=".pdf"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="82" priority="87" operator="endsWith" text=".html">
+    <cfRule type="endsWith" dxfId="66" priority="87" operator="endsWith" text=".html">
       <formula>RIGHT(E181,LEN(".html"))=".html"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="81" priority="88" operator="endsWith" text=".bed">
+    <cfRule type="endsWith" dxfId="65" priority="88" operator="endsWith" text=".bed">
       <formula>RIGHT(E181,LEN(".bed"))=".bed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E181">
-    <cfRule type="containsText" dxfId="80" priority="81" operator="containsText" text=".sh">
+    <cfRule type="containsText" dxfId="64" priority="81" operator="containsText" text=".sh">
       <formula>NOT(ISERROR(SEARCH(".sh",E181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D179:D182">
-    <cfRule type="endsWith" dxfId="79" priority="74" operator="endsWith" text=".txt">
+    <cfRule type="endsWith" dxfId="63" priority="74" operator="endsWith" text=".txt">
       <formula>RIGHT(D179,LEN(".txt"))=".txt"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="78" priority="75" operator="endsWith" text=".tab">
+    <cfRule type="endsWith" dxfId="62" priority="75" operator="endsWith" text=".tab">
       <formula>RIGHT(D179,LEN(".tab"))=".tab"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="77" priority="76" operator="endsWith" text=".tsv">
+    <cfRule type="endsWith" dxfId="61" priority="76" operator="endsWith" text=".tsv">
       <formula>RIGHT(D179,LEN(".tsv"))=".tsv"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="76" priority="77" operator="endsWith" text=".png">
+    <cfRule type="endsWith" dxfId="60" priority="77" operator="endsWith" text=".png">
       <formula>RIGHT(D179,LEN(".png"))=".png"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="75" priority="78" operator="endsWith" text=".pdf">
+    <cfRule type="endsWith" dxfId="59" priority="78" operator="endsWith" text=".pdf">
       <formula>RIGHT(D179,LEN(".pdf"))=".pdf"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="74" priority="79" operator="endsWith" text=".html">
+    <cfRule type="endsWith" dxfId="58" priority="79" operator="endsWith" text=".html">
       <formula>RIGHT(D179,LEN(".html"))=".html"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="73" priority="80" operator="endsWith" text=".bed">
+    <cfRule type="endsWith" dxfId="57" priority="80" operator="endsWith" text=".bed">
       <formula>RIGHT(D179,LEN(".bed"))=".bed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D179:D182">
-    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text=".sh">
+    <cfRule type="containsText" dxfId="56" priority="73" operator="containsText" text=".sh">
       <formula>NOT(ISERROR(SEARCH(".sh",D179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:D28 F28:N28">
-    <cfRule type="endsWith" dxfId="71" priority="66" operator="endsWith" text=".txt">
+    <cfRule type="endsWith" dxfId="55" priority="66" operator="endsWith" text=".txt">
       <formula>RIGHT(A28,LEN(".txt"))=".txt"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="70" priority="67" operator="endsWith" text=".tab">
+    <cfRule type="endsWith" dxfId="54" priority="67" operator="endsWith" text=".tab">
       <formula>RIGHT(A28,LEN(".tab"))=".tab"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="69" priority="68" operator="endsWith" text=".tsv">
+    <cfRule type="endsWith" dxfId="53" priority="68" operator="endsWith" text=".tsv">
       <formula>RIGHT(A28,LEN(".tsv"))=".tsv"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="68" priority="69" operator="endsWith" text=".png">
+    <cfRule type="endsWith" dxfId="52" priority="69" operator="endsWith" text=".png">
       <formula>RIGHT(A28,LEN(".png"))=".png"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="67" priority="70" operator="endsWith" text=".pdf">
+    <cfRule type="endsWith" dxfId="51" priority="70" operator="endsWith" text=".pdf">
       <formula>RIGHT(A28,LEN(".pdf"))=".pdf"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="66" priority="71" operator="endsWith" text=".html">
+    <cfRule type="endsWith" dxfId="50" priority="71" operator="endsWith" text=".html">
       <formula>RIGHT(A28,LEN(".html"))=".html"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="65" priority="72" operator="endsWith" text=".bed">
+    <cfRule type="endsWith" dxfId="49" priority="72" operator="endsWith" text=".bed">
       <formula>RIGHT(A28,LEN(".bed"))=".bed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:D28 F28:N28">
-    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text=".sh">
+    <cfRule type="containsText" dxfId="48" priority="65" operator="containsText" text=".sh">
       <formula>NOT(ISERROR(SEARCH(".sh",A28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="endsWith" dxfId="63" priority="58" operator="endsWith" text=".txt">
+    <cfRule type="endsWith" dxfId="47" priority="58" operator="endsWith" text=".txt">
       <formula>RIGHT(E28,LEN(".txt"))=".txt"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="62" priority="59" operator="endsWith" text=".tab">
+    <cfRule type="endsWith" dxfId="46" priority="59" operator="endsWith" text=".tab">
       <formula>RIGHT(E28,LEN(".tab"))=".tab"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="61" priority="60" operator="endsWith" text=".tsv">
+    <cfRule type="endsWith" dxfId="45" priority="60" operator="endsWith" text=".tsv">
       <formula>RIGHT(E28,LEN(".tsv"))=".tsv"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="60" priority="61" operator="endsWith" text=".png">
+    <cfRule type="endsWith" dxfId="44" priority="61" operator="endsWith" text=".png">
       <formula>RIGHT(E28,LEN(".png"))=".png"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="59" priority="62" operator="endsWith" text=".pdf">
+    <cfRule type="endsWith" dxfId="43" priority="62" operator="endsWith" text=".pdf">
       <formula>RIGHT(E28,LEN(".pdf"))=".pdf"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="58" priority="63" operator="endsWith" text=".html">
+    <cfRule type="endsWith" dxfId="42" priority="63" operator="endsWith" text=".html">
       <formula>RIGHT(E28,LEN(".html"))=".html"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="57" priority="64" operator="endsWith" text=".bed">
+    <cfRule type="endsWith" dxfId="41" priority="64" operator="endsWith" text=".bed">
       <formula>RIGHT(E28,LEN(".bed"))=".bed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text=".sh">
+    <cfRule type="containsText" dxfId="40" priority="57" operator="containsText" text=".sh">
       <formula>NOT(ISERROR(SEARCH(".sh",E28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:N31">
-    <cfRule type="endsWith" dxfId="47" priority="42" operator="endsWith" text=".txt">
+    <cfRule type="endsWith" dxfId="39" priority="42" operator="endsWith" text=".txt">
       <formula>RIGHT(A30,LEN(".txt"))=".txt"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="46" priority="43" operator="endsWith" text=".tab">
+    <cfRule type="endsWith" dxfId="38" priority="43" operator="endsWith" text=".tab">
       <formula>RIGHT(A30,LEN(".tab"))=".tab"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="45" priority="44" operator="endsWith" text=".tsv">
+    <cfRule type="endsWith" dxfId="37" priority="44" operator="endsWith" text=".tsv">
       <formula>RIGHT(A30,LEN(".tsv"))=".tsv"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="44" priority="45" operator="endsWith" text=".png">
+    <cfRule type="endsWith" dxfId="36" priority="45" operator="endsWith" text=".png">
       <formula>RIGHT(A30,LEN(".png"))=".png"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="43" priority="46" operator="endsWith" text=".pdf">
+    <cfRule type="endsWith" dxfId="35" priority="46" operator="endsWith" text=".pdf">
       <formula>RIGHT(A30,LEN(".pdf"))=".pdf"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="42" priority="47" operator="endsWith" text=".html">
+    <cfRule type="endsWith" dxfId="34" priority="47" operator="endsWith" text=".html">
       <formula>RIGHT(A30,LEN(".html"))=".html"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="41" priority="48" operator="endsWith" text=".bed">
+    <cfRule type="endsWith" dxfId="33" priority="48" operator="endsWith" text=".bed">
       <formula>RIGHT(A30,LEN(".bed"))=".bed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:N31">
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text=".sh">
+    <cfRule type="containsText" dxfId="32" priority="41" operator="containsText" text=".sh">
       <formula>NOT(ISERROR(SEARCH(".sh",A30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29 F29:N29">
-    <cfRule type="endsWith" dxfId="39" priority="34" operator="endsWith" text=".txt">
+    <cfRule type="endsWith" dxfId="31" priority="34" operator="endsWith" text=".txt">
       <formula>RIGHT(A29,LEN(".txt"))=".txt"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="38" priority="35" operator="endsWith" text=".tab">
+    <cfRule type="endsWith" dxfId="30" priority="35" operator="endsWith" text=".tab">
       <formula>RIGHT(A29,LEN(".tab"))=".tab"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="37" priority="36" operator="endsWith" text=".tsv">
+    <cfRule type="endsWith" dxfId="29" priority="36" operator="endsWith" text=".tsv">
       <formula>RIGHT(A29,LEN(".tsv"))=".tsv"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="36" priority="37" operator="endsWith" text=".png">
+    <cfRule type="endsWith" dxfId="28" priority="37" operator="endsWith" text=".png">
       <formula>RIGHT(A29,LEN(".png"))=".png"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="35" priority="38" operator="endsWith" text=".pdf">
+    <cfRule type="endsWith" dxfId="27" priority="38" operator="endsWith" text=".pdf">
       <formula>RIGHT(A29,LEN(".pdf"))=".pdf"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="34" priority="39" operator="endsWith" text=".html">
+    <cfRule type="endsWith" dxfId="26" priority="39" operator="endsWith" text=".html">
       <formula>RIGHT(A29,LEN(".html"))=".html"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="33" priority="40" operator="endsWith" text=".bed">
+    <cfRule type="endsWith" dxfId="25" priority="40" operator="endsWith" text=".bed">
       <formula>RIGHT(A29,LEN(".bed"))=".bed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29 F29:N29">
-    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text=".sh">
+    <cfRule type="containsText" dxfId="24" priority="33" operator="containsText" text=".sh">
       <formula>NOT(ISERROR(SEARCH(".sh",A29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:D29">
-    <cfRule type="endsWith" dxfId="31" priority="26" operator="endsWith" text=".txt">
+    <cfRule type="endsWith" dxfId="23" priority="26" operator="endsWith" text=".txt">
       <formula>RIGHT(C29,LEN(".txt"))=".txt"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="30" priority="27" operator="endsWith" text=".tab">
+    <cfRule type="endsWith" dxfId="22" priority="27" operator="endsWith" text=".tab">
       <formula>RIGHT(C29,LEN(".tab"))=".tab"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="29" priority="28" operator="endsWith" text=".tsv">
+    <cfRule type="endsWith" dxfId="21" priority="28" operator="endsWith" text=".tsv">
       <formula>RIGHT(C29,LEN(".tsv"))=".tsv"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="28" priority="29" operator="endsWith" text=".png">
+    <cfRule type="endsWith" dxfId="20" priority="29" operator="endsWith" text=".png">
       <formula>RIGHT(C29,LEN(".png"))=".png"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="27" priority="30" operator="endsWith" text=".pdf">
+    <cfRule type="endsWith" dxfId="19" priority="30" operator="endsWith" text=".pdf">
       <formula>RIGHT(C29,LEN(".pdf"))=".pdf"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="26" priority="31" operator="endsWith" text=".html">
+    <cfRule type="endsWith" dxfId="18" priority="31" operator="endsWith" text=".html">
       <formula>RIGHT(C29,LEN(".html"))=".html"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="25" priority="32" operator="endsWith" text=".bed">
+    <cfRule type="endsWith" dxfId="17" priority="32" operator="endsWith" text=".bed">
       <formula>RIGHT(C29,LEN(".bed"))=".bed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:D29">
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text=".sh">
+    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text=".sh">
       <formula>NOT(ISERROR(SEARCH(".sh",C29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="endsWith" dxfId="23" priority="18" operator="endsWith" text=".txt">
+    <cfRule type="endsWith" dxfId="15" priority="18" operator="endsWith" text=".txt">
       <formula>RIGHT(E29,LEN(".txt"))=".txt"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="22" priority="19" operator="endsWith" text=".tab">
+    <cfRule type="endsWith" dxfId="14" priority="19" operator="endsWith" text=".tab">
       <formula>RIGHT(E29,LEN(".tab"))=".tab"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="21" priority="20" operator="endsWith" text=".tsv">
+    <cfRule type="endsWith" dxfId="13" priority="20" operator="endsWith" text=".tsv">
       <formula>RIGHT(E29,LEN(".tsv"))=".tsv"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="20" priority="21" operator="endsWith" text=".png">
+    <cfRule type="endsWith" dxfId="12" priority="21" operator="endsWith" text=".png">
       <formula>RIGHT(E29,LEN(".png"))=".png"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="19" priority="22" operator="endsWith" text=".pdf">
+    <cfRule type="endsWith" dxfId="11" priority="22" operator="endsWith" text=".pdf">
       <formula>RIGHT(E29,LEN(".pdf"))=".pdf"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="18" priority="23" operator="endsWith" text=".html">
+    <cfRule type="endsWith" dxfId="10" priority="23" operator="endsWith" text=".html">
       <formula>RIGHT(E29,LEN(".html"))=".html"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="17" priority="24" operator="endsWith" text=".bed">
+    <cfRule type="endsWith" dxfId="9" priority="24" operator="endsWith" text=".bed">
       <formula>RIGHT(E29,LEN(".bed"))=".bed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text=".sh">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text=".sh">
       <formula>NOT(ISERROR(SEARCH(".sh",E29)))</formula>
     </cfRule>
   </conditionalFormatting>
